--- a/Conveyance Bill September.xlsx
+++ b/Conveyance Bill September.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mahbub\ZAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE1869-9018-4C06-9138-F9CACDF171AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96E8F5-F522-4E13-AD72-F2C591B9C2A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ZAB</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Ashian Im.. &amp; EBL</t>
+  </si>
+  <si>
+    <t>Gulsha-2</t>
+  </si>
+  <si>
+    <t>Bill voucher joma</t>
+  </si>
+  <si>
+    <t>Rabbi vai United G</t>
   </si>
 </sst>
 </file>
@@ -875,6 +884,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,75 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,19 +1443,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="72" t="s">
+      <c r="F3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
@@ -1457,15 +1466,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
@@ -1476,43 +1485,43 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="J6" s="84" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="J6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86" t="s">
+      <c r="K6" s="78"/>
+      <c r="L6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87" t="s">
+      <c r="M6" s="79"/>
+      <c r="N6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="10"/>
@@ -1551,8 +1560,8 @@
       <c r="M7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="60"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1601,16 +1610,29 @@
       <c r="C9" s="28">
         <v>2</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="19">
+        <f>DATE(2019,9,8)</f>
+        <v>43716</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="31">
         <f>SUM(J9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="J9" s="18">
+        <v>30</v>
+      </c>
+      <c r="K9" s="20">
+        <v>50</v>
+      </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="25"/>
@@ -1978,15 +2000,15 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K26" s="47">
         <f>SUM(K8:K25)</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L26" s="47">
         <f>SUM(L8:L25)</f>
@@ -2004,10 +2026,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="84"/>
       <c r="G28" s="36" t="s">
         <v>18</v>
       </c>
@@ -2022,8 +2044,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
       <c r="G29" s="36" t="s">
         <v>19</v>
       </c>
@@ -2038,14 +2060,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="G30" s="50" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2055,8 +2077,8 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53" t="s">
         <v>17</v>
@@ -2072,8 +2094,8 @@
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
@@ -2088,28 +2110,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64">
+      <c r="K33" s="86"/>
+      <c r="L33" s="87">
         <f ca="1">NOW()</f>
-        <v>43713.514617129629</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
+        <v>43716.481012268516</v>
+      </c>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2133,6 +2155,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:P33"/>
     <mergeCell ref="F3:J5"/>
     <mergeCell ref="K3:N5"/>
     <mergeCell ref="C6:E6"/>
@@ -2140,11 +2167,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:P33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>

--- a/Conveyance Bill September.xlsx
+++ b/Conveyance Bill September.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mahbub\ZAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96E8F5-F522-4E13-AD72-F2C591B9C2A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5E180-F1C5-494F-B9D0-318C40731524}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>ZAB</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Rabbi vai United G</t>
+  </si>
+  <si>
+    <t>Gulsha-1</t>
+  </si>
+  <si>
+    <t>passport book</t>
+  </si>
+  <si>
+    <t>skylight</t>
   </si>
 </sst>
 </file>
@@ -884,6 +893,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,27 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,7 +1388,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K11:K12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,19 +1452,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="65" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
@@ -1466,15 +1475,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
@@ -1485,43 +1494,43 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="J6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79" t="s">
+      <c r="K6" s="85"/>
+      <c r="L6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="86"/>
+      <c r="N6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="10"/>
@@ -1560,8 +1569,8 @@
       <c r="M7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1645,15 +1654,26 @@
       <c r="C10" s="28">
         <v>3</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="19">
+        <f>DATE(2019,9,16)</f>
+        <v>43724</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="31">
         <f t="shared" ref="H10:H25" si="0">SUM(J10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="J10" s="33">
+        <v>70</v>
+      </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -2000,11 +2020,11 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K26" s="47">
         <f>SUM(K8:K25)</f>
@@ -2026,10 +2046,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="61"/>
       <c r="G28" s="36" t="s">
         <v>18</v>
       </c>
@@ -2044,8 +2064,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="G29" s="36" t="s">
         <v>19</v>
       </c>
@@ -2060,14 +2080,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="G30" s="50" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2077,8 +2097,8 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53" t="s">
         <v>17</v>
@@ -2094,8 +2114,8 @@
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
@@ -2110,28 +2130,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87">
+      <c r="K33" s="63"/>
+      <c r="L33" s="64">
         <f ca="1">NOW()</f>
-        <v>43716.481012268516</v>
-      </c>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+        <v>43725.768503240739</v>
+      </c>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2155,11 +2175,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:P33"/>
     <mergeCell ref="F3:J5"/>
     <mergeCell ref="K3:N5"/>
     <mergeCell ref="C6:E6"/>
@@ -2167,6 +2182,11 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:P33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>

--- a/Conveyance Bill September.xlsx
+++ b/Conveyance Bill September.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mahbub\ZAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5E180-F1C5-494F-B9D0-318C40731524}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76078A2A-B6C3-4F37-87C5-42EA7C8B82FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>ZAB</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>skylight</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Gulshan-1</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>A K khan, EBL</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1403,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,16 +1702,27 @@
       <c r="C11" s="28">
         <v>4</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19">
+        <f>DATE(2019,9,21)</f>
+        <v>43729</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="58"/>
       <c r="H11" s="31">
         <f>SUM(J11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="J11" s="33">
+        <v>20</v>
+      </c>
+      <c r="K11" s="34">
+        <v>20</v>
+      </c>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="36"/>
@@ -1709,16 +1735,29 @@
       <c r="C12" s="28">
         <v>5</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19">
+        <f>DATE(2019,9,23)</f>
+        <v>43731</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="J12" s="33">
+        <v>20</v>
+      </c>
+      <c r="K12" s="34">
+        <v>50</v>
+      </c>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="36"/>
@@ -2020,15 +2059,15 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K26" s="47">
         <f>SUM(K8:K25)</f>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L26" s="47">
         <f>SUM(L8:L25)</f>
@@ -2087,7 +2126,7 @@
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2146,7 +2185,7 @@
       <c r="K33" s="63"/>
       <c r="L33" s="64">
         <f ca="1">NOW()</f>
-        <v>43725.768503240739</v>
+        <v>43731.538969097222</v>
       </c>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>

--- a/Conveyance Bill September.xlsx
+++ b/Conveyance Bill September.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mahbub\ZAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76078A2A-B6C3-4F37-87C5-42EA7C8B82FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64D79D-72D4-4A27-A6E6-39CA1FAA67D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>ZAB</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>A K khan, EBL</t>
+  </si>
+  <si>
+    <t>sir paper joma</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -771,6 +774,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -778,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -908,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,19 +1484,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="72" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
@@ -1490,15 +1507,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
@@ -1509,43 +1526,43 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="J6" s="84" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="J6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86" t="s">
+      <c r="K6" s="86"/>
+      <c r="L6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87" t="s">
+      <c r="M6" s="87"/>
+      <c r="N6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="10"/>
@@ -1584,8 +1601,8 @@
       <c r="M7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="60"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1771,15 +1788,26 @@
       <c r="C13" s="28">
         <v>6</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="19">
+        <f>DATE(2019,9,14)</f>
+        <v>43722</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="33"/>
+        <v>75</v>
+      </c>
+      <c r="J13" s="33">
+        <v>75</v>
+      </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -1793,17 +1821,28 @@
       <c r="C14" s="28">
         <v>7</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19">
+        <f>DATE(2019,9,30)</f>
+        <v>43738</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="36"/>
       <c r="H14" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+        <v>190</v>
+      </c>
+      <c r="J14" s="33">
+        <v>35</v>
+      </c>
+      <c r="K14" s="34">
+        <v>35</v>
+      </c>
+      <c r="L14" s="34">
+        <v>120</v>
+      </c>
       <c r="M14" s="34"/>
       <c r="N14" s="36"/>
       <c r="O14" s="35"/>
@@ -2059,19 +2098,19 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>370</v>
+        <v>635</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K26" s="47">
         <f>SUM(K8:K25)</f>
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="L26" s="47">
         <f>SUM(L8:L25)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M26" s="48">
         <f>SUM(M8:M25)</f>
@@ -2085,10 +2124,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="62"/>
       <c r="G28" s="36" t="s">
         <v>18</v>
       </c>
@@ -2103,8 +2142,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="G29" s="36" t="s">
         <v>19</v>
       </c>
@@ -2119,14 +2158,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="G30" s="50" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>370</v>
+        <v>635</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2136,8 +2175,8 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53" t="s">
         <v>17</v>
@@ -2153,8 +2192,8 @@
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
       <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
@@ -2169,28 +2208,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64">
+      <c r="K33" s="64"/>
+      <c r="L33" s="65">
         <f ca="1">NOW()</f>
-        <v>43731.538969097222</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
+        <v>43740.4391875</v>
+      </c>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">

--- a/Conveyance Bill September.xlsx
+++ b/Conveyance Bill September.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mahbub\ZAB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64D79D-72D4-4A27-A6E6-39CA1FAA67D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Aug19" sheetId="19" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -195,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -1058,7 +1052,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1169,26 +1163,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,23 +1198,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1413,14 +1373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2184,7 @@
       <c r="K33" s="64"/>
       <c r="L33" s="65">
         <f ca="1">NOW()</f>
-        <v>43740.4391875</v>
+        <v>43744.434227777776</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -2267,7 +2227,7 @@
     <mergeCell ref="L33:P33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="portrait" r:id="rId2"/>
